--- a/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
+++ b/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.65</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.45</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银精华配置混合</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.15</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>610002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>信达澳银精华配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>91.41</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.40</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.09</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -772,15 +872,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
+++ b/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
+++ b/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1294,4 +1295,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
+++ b/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1303,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,17 +1315,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1355,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.83</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1350,14 +1393,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1366,13 +1431,781 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7530</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.029999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
+++ b/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2131,17 +2132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.029999999999999</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2167,14 +2210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.83</v>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2183,14 +2248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6732</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2199,13 +2286,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.029999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
+++ b/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2481,7 +2482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2492,17 +2493,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2512,14 +2533,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.68</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -2528,14 +2623,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>8.029999999999999</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="4">
@@ -2544,14 +2639,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.83</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -2560,14 +2655,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
@@ -2576,13 +2671,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
+++ b/数据整理/stocks/A股/上证主板/600516-方大炭素.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001410</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银新能源产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>125.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0308</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.029999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4540</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3612</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2526</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>610002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银精华配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2252</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -867,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>86.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.1023</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -961,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>003984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>嘉实新能源新材料股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.04</t>
+          <t>77.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2395</t>
+          <t>3.4038</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010861</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>55.99</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2640</t>
+          <t>1.0997</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1037,36 +809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>003985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>嘉实新能源新材料股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.45</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1610</t>
+          <t>0.6732</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1075,32 +847,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>32.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.3652</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1113,36 +885,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>82.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0610</t>
+          <t>0.0614</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1151,36 +923,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002149</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实新优选灵活配置混合</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1189,36 +961,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>002149</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>嘉实新优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1227,71 +999,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001139</t>
+          <t>015206</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安新动力灵活配置混合</t>
+          <t>招商安裕灵活配置混合D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2122,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,7 +1879,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2173,36 +1909,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003984</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票A</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.01</t>
+          <t>25.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4038</t>
+          <t>1.2395</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2211,36 +1947,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>010861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>长信企业优选一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>55.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0997</t>
+          <t>0.2640</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2249,36 +1985,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003985</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实新能源新材料股票C</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>62.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6732</t>
+          <t>0.1610</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2287,32 +2023,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.90</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3652</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2325,36 +2061,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.48</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0614</t>
+          <t>0.0610</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2363,36 +2099,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>002149</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>嘉实新优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>86.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0527</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2401,36 +2137,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002149</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实新优选灵活配置混合</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2439,35 +2175,71 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>015206</t>
+          <t>001139</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合D</t>
+          <t>华安新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>22.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2503,7 +2275,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2533,36 +2305,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.97</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1023</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2576,128 +2348,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.68</v>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.029999999999999</v>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.55</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>